--- a/biology/Zoologie/Heteroonops_spinimanus/Heteroonops_spinimanus.xlsx
+++ b/biology/Zoologie/Heteroonops_spinimanus/Heteroonops_spinimanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heteroonops spinimanus est une espèce d'araignées aranéomorphes de la famille des Oonopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heteroonops spinimanus est une espèce d'araignées aranéomorphes de la famille des Oonopidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce d'origine antillaise est pantropicale par introduction[1],[2].
-Elle a été observée en Australie, en Nouvelle-Calédonie, aux Fidji, à Pitcairn, aux îles Cook, aux îles Marquises, à Hawaï, au Japon, aux Seychelles, à Madagascar, à Sainte-Hélène, sur l'île de l'Ascension, à Madère, aux Pays-Bas, en Allemagne, en Tchéquie, au Venezuela, en Colombie, à la Trinité, à Saint-Vincent, à Sainte-Lucie, en Saint-Christophe, à Niévès, aux îles Vierges, à Porto Rico, en Jamaïque, à Cuba, aux Bermudes, aux Bahamas, au Panama, au Costa Rica, au Mexique et en Floride aux États-Unis[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce d'origine antillaise est pantropicale par introduction,.
+Elle a été observée en Australie, en Nouvelle-Calédonie, aux Fidji, à Pitcairn, aux îles Cook, aux îles Marquises, à Hawaï, au Japon, aux Seychelles, à Madagascar, à Sainte-Hélène, sur l'île de l'Ascension, à Madère, aux Pays-Bas, en Allemagne, en Tchéquie, au Venezuela, en Colombie, à la Trinité, à Saint-Vincent, à Sainte-Lucie, en Saint-Christophe, à Niévès, aux îles Vierges, à Porto Rico, en Jamaïque, à Cuba, aux Bermudes, aux Bahamas, au Panama, au Costa Rica, au Mexique et en Floride aux États-Unis,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Platnick et Dupérré en 2009 mesure 1,64 mm et la femelle 1,83 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Platnick et Dupérré en 2009 mesure 1,64 mm et la femelle 1,83 mm.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Oonops spinimanus par Simon en 1892. Elle est placée dans le genre Heteroonops par Dalmas en 1916[3].
-Oonops bermudensis[4] a été placée en synonymie par Sierwald en 1988[5].
-Oonopinus hunus[6] et Matyotia tetraspinosus[7] ont été placées en synonymie par Platnick et Dupérré en 2009[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Oonops spinimanus par Simon en 1892. Elle est placée dans le genre Heteroonops par Dalmas en 1916.
+Oonops bermudensis a été placée en synonymie par Sierwald en 1988.
+Oonopinus hunus et Matyotia tetraspinosus ont été placées en synonymie par Platnick et Dupérré en 2009.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1892 : « On the spiders of the island of St. Vincent. Part 1. » Proceedings of the Zoological Society of London, vol. 1891, p. 549-575 (texte intégral).</t>
         </is>
